--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TanakaMo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="2010" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1611,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2155,6 +2155,30 @@
         <v>286</v>
       </c>
     </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B68">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B69">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B70">
+        <v>406</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\コロナ対策サイト\0405\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="2010" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1611,9 +1611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1622,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2175,6 +2177,14 @@
       </c>
       <c r="B70">
         <v>406</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B71">
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\コロナ対策サイト\0405\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="2010" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1611,9 +1611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1622,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43926</v>
+        <v>43928</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2175,6 +2177,22 @@
       </c>
       <c r="B70">
         <v>406</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B71">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B72">
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts1.xlsx
+++ b/data/contacts1.xlsx
@@ -1611,7 +1611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1624,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>43937</v>
+        <v>43942</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2265,6 +2265,46 @@
       </c>
       <c r="B81">
         <v>329</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B82">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B83">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B84">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B85">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B86">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
